--- a/Banco Geral/Estacao1/historico2024.xlsx
+++ b/Banco Geral/Estacao1/historico2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,22 +609,143 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+          <t>12:20:15 18/10</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>14:14:45 14/10</t>
+          <t>20:10:10 18/10</t>
         </is>
       </c>
       <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12:20:15 19/10</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20:10:10 19/10</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>14</v>
+      </c>
+      <c r="C17" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12:20:15 20/10</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>13</v>
+      </c>
+      <c r="C18" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>20:10:10 20/10</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>14</v>
+      </c>
+      <c r="C19" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12:20:15 21/10</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>13</v>
+      </c>
+      <c r="C20" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20:10:10 21/10</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>14</v>
+      </c>
+      <c r="C21" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12:20:15 22/10</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>13</v>
+      </c>
+      <c r="C22" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20:10:10 22/10</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>14</v>
+      </c>
+      <c r="C23" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>18:51:42 10/11</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>12</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C24" t="n">
         <v>34</v>
       </c>
     </row>
